--- a/eform-client/cypress/fixtures/2021-11-01T00_00_00.000Z_2022-04-01T00_00_00.000Z_report.xlsx
+++ b/eform-client/cypress/fixtures/2021-11-01T00_00_00.000Z_2022-04-01T00_00_00.000Z_report.xlsx
@@ -6,9 +6,9 @@
     <x:workbookView firstSheet="0" activeTab="0"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="19 - 03. Control floating laye" sheetId="2" r:id="rId2"/>
-    <x:sheet name="23 - 04. Feeding documentation" sheetId="3" r:id="rId3"/>
-    <x:sheet name="77 - 20. Task completed" sheetId="4" r:id="rId4"/>
+    <x:sheet name="19 - 03. Kontrol flydelag" sheetId="2" r:id="rId2"/>
+    <x:sheet name="23 - 04. Foderindlægssedler" sheetId="3" r:id="rId3"/>
+    <x:sheet name="77 - 20. Arbejdsopgave udført" sheetId="4" r:id="rId4"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="125725"/>
@@ -21,40 +21,40 @@
     <x:t>Id</x:t>
   </x:si>
   <x:si>
-    <x:t>Property</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Created At</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Done By</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Item name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Floating layer OK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Select reason for lack of floating layer</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Comment</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tjørntved</x:t>
+    <x:t>Ejendom</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dato</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Udført af</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Område</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Flydelag OK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vælg årsag til manglende flydelag</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kommentar</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Farm 1</x:t>
   </x:si>
   <x:si>
     <x:t>Kristian Poulsen</x:t>
   </x:si>
   <x:si>
-    <x:t>G1: Floating layer</x:t>
+    <x:t>G1: Flydelag</x:t>
   </x:si>
   <x:si>
     <x:t/>
   </x:si>
   <x:si>
-    <x:t>G2: Floating layer</x:t>
+    <x:t>G2: Flydelag</x:t>
   </x:si>
   <x:si>
     <x:t>Biskopstorp</x:t>
@@ -63,10 +63,10 @@
     <x:t>0</x:t>
   </x:si>
   <x:si>
-    <x:t>Slurry tank empty</x:t>
-  </x:si>
-  <x:si>
-    <x:t>G3: Floating layer</x:t>
+    <x:t>Beholder tom</x:t>
+  </x:si>
+  <x:si>
+    <x:t>G3: Flydelag</x:t>
   </x:si>
   <x:si>
     <x:t>Mineraler</x:t>
@@ -91,7 +91,7 @@
     <x:t>Biskopstorp (Valerii)</x:t>
   </x:si>
   <x:si>
-    <x:t>Task completed</x:t>
+    <x:t>Opgave udført</x:t>
   </x:si>
   <x:si>
     <x:t>Vask blandekar</x:t>

--- a/eform-client/cypress/fixtures/2021-11-01T00_00_00.000Z_2022-04-01T00_00_00.000Z_report.xlsx
+++ b/eform-client/cypress/fixtures/2021-11-01T00_00_00.000Z_2022-04-01T00_00_00.000Z_report.xlsx
@@ -184,7 +184,7 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="4">
+  <x:cellXfs count="5">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -199,6 +199,10 @@
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -1072,7 +1076,7 @@
       <x:c r="E16" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="F16" s="3" t="s">
+      <x:c r="F16" s="4" t="s">
         <x:v>21</x:v>
       </x:c>
     </x:row>

--- a/eform-client/cypress/fixtures/2021-11-01T00_00_00.000Z_2022-04-01T00_00_00.000Z_report.xlsx
+++ b/eform-client/cypress/fixtures/2021-11-01T00_00_00.000Z_2022-04-01T00_00_00.000Z_report.xlsx
@@ -24,7 +24,7 @@
     <x:t>Ejendom</x:t>
   </x:si>
   <x:si>
-    <x:t>Dato</x:t>
+    <x:t>Indsendt dato</x:t>
   </x:si>
   <x:si>
     <x:t>Udført af</x:t>

--- a/eform-client/cypress/fixtures/2021-11-01T00_00_00.000Z_2022-04-01T00_00_00.000Z_report.xlsx
+++ b/eform-client/cypress/fixtures/2021-11-01T00_00_00.000Z_2022-04-01T00_00_00.000Z_report.xlsx
@@ -10,7 +10,11 @@
     <x:sheet name="23 - 04. Foderindlægssedler" sheetId="3" r:id="rId3"/>
     <x:sheet name="77 - 20. Arbejdsopgave udført" sheetId="4" r:id="rId4"/>
   </x:sheets>
-  <x:definedNames/>
+  <x:definedNames>
+    <x:definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'19 - 03. Kontrol flydelag'!$A$1:$H$9</x:definedName>
+    <x:definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'23 - 04. Foderindlægssedler'!$A$1:$F$30</x:definedName>
+    <x:definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'77 - 20. Arbejdsopgave udført'!$A$1:$G$23</x:definedName>
+  </x:definedNames>
   <x:calcPr calcId="125725"/>
 </x:workbook>
 </file>
@@ -58,9 +62,6 @@
   </x:si>
   <x:si>
     <x:t>Biskopstorp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0</x:t>
   </x:si>
   <x:si>
     <x:t>Beholder tom</x:t>
@@ -600,11 +601,11 @@
       <x:c r="E4" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="F4" s="3" t="s">
+      <x:c r="F4" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G4" s="3" t="s">
         <x:v>14</x:v>
-      </x:c>
-      <x:c r="G4" s="3" t="s">
-        <x:v>15</x:v>
       </x:c>
       <x:c r="H4" s="3" t="s">
         <x:v>11</x:v>
@@ -626,11 +627,11 @@
       <x:c r="E5" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="F5" s="3" t="s">
+      <x:c r="F5" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G5" s="3" t="s">
         <x:v>14</x:v>
-      </x:c>
-      <x:c r="G5" s="3" t="s">
-        <x:v>15</x:v>
       </x:c>
       <x:c r="H5" s="3" t="s">
         <x:v>11</x:v>
@@ -650,7 +651,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="E6" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F6" s="0">
         <x:v>1</x:v>
@@ -741,6 +742,7 @@
       </x:c>
     </x:row>
   </x:sheetData>
+  <x:autoFilter ref="A1:H9"/>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
@@ -794,7 +796,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="E2" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F2" s="3" t="s">
         <x:v>11</x:v>
@@ -814,7 +816,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="E3" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F3" s="3" t="s">
         <x:v>11</x:v>
@@ -834,7 +836,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="E4" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F4" s="3" t="s">
         <x:v>11</x:v>
@@ -854,7 +856,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="E5" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F5" s="3" t="s">
         <x:v>11</x:v>
@@ -874,7 +876,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="E6" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F6" s="3" t="s">
         <x:v>11</x:v>
@@ -894,7 +896,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="E7" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F7" s="3" t="s">
         <x:v>11</x:v>
@@ -914,7 +916,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="E8" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F8" s="3" t="s">
         <x:v>11</x:v>
@@ -934,7 +936,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="E9" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F9" s="3" t="s">
         <x:v>11</x:v>
@@ -954,7 +956,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="E10" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F10" s="3" t="s">
         <x:v>11</x:v>
@@ -974,7 +976,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="E11" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F11" s="3" t="s">
         <x:v>11</x:v>
@@ -994,7 +996,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="E12" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="F12" s="3" t="s">
         <x:v>11</x:v>
@@ -1014,7 +1016,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="E13" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F13" s="3" t="s">
         <x:v>11</x:v>
@@ -1034,7 +1036,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="E14" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F14" s="3" t="s">
         <x:v>11</x:v>
@@ -1054,7 +1056,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="E15" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F15" s="3" t="s">
         <x:v>11</x:v>
@@ -1074,10 +1076,10 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="E16" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F16" s="4" t="s">
-        <x:v>21</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:6">
@@ -1094,7 +1096,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="E17" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F17" s="3" t="s">
         <x:v>11</x:v>
@@ -1114,7 +1116,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="E18" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F18" s="3" t="s">
         <x:v>11</x:v>
@@ -1134,7 +1136,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="E19" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="F19" s="3" t="s">
         <x:v>11</x:v>
@@ -1154,7 +1156,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="E20" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="F20" s="3" t="s">
         <x:v>11</x:v>
@@ -1174,7 +1176,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="E21" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F21" s="3" t="s">
         <x:v>11</x:v>
@@ -1194,7 +1196,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="E22" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F22" s="3" t="s">
         <x:v>11</x:v>
@@ -1214,7 +1216,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="E23" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F23" s="3" t="s">
         <x:v>11</x:v>
@@ -1231,10 +1233,10 @@
         <x:v>44637.4530902778</x:v>
       </x:c>
       <x:c r="D24" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E24" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F24" s="3" t="s">
         <x:v>11</x:v>
@@ -1251,10 +1253,10 @@
         <x:v>44637.4552083333</x:v>
       </x:c>
       <x:c r="D25" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E25" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F25" s="3" t="s">
         <x:v>11</x:v>
@@ -1274,7 +1276,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="E26" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F26" s="3" t="s">
         <x:v>11</x:v>
@@ -1291,10 +1293,10 @@
         <x:v>44648.361712963</x:v>
       </x:c>
       <x:c r="D27" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E27" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="F27" s="3" t="s">
         <x:v>11</x:v>
@@ -1314,7 +1316,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="E28" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F28" s="3" t="s">
         <x:v>11</x:v>
@@ -1334,7 +1336,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="E29" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F29" s="3" t="s">
         <x:v>11</x:v>
@@ -1354,13 +1356,14 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="E30" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F30" s="3" t="s">
         <x:v>11</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
+  <x:autoFilter ref="A1:F30"/>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
@@ -1397,7 +1400,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="F1" s="1" t="s">
-        <x:v>24</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="G1" s="1" t="s">
         <x:v>7</x:v>
@@ -1417,7 +1420,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="E2" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F2" s="0">
         <x:v>1</x:v>
@@ -1440,7 +1443,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="E3" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F3" s="0">
         <x:v>1</x:v>
@@ -1463,7 +1466,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="E4" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F4" s="0">
         <x:v>1</x:v>
@@ -1486,7 +1489,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="E5" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F5" s="0">
         <x:v>1</x:v>
@@ -1509,7 +1512,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="E6" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F6" s="0">
         <x:v>1</x:v>
@@ -1532,7 +1535,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="E7" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F7" s="0">
         <x:v>1</x:v>
@@ -1555,7 +1558,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="E8" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F8" s="0">
         <x:v>1</x:v>
@@ -1575,10 +1578,10 @@
         <x:v>44587.4349884259</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="E9" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F9" s="0">
         <x:v>1</x:v>
@@ -1598,10 +1601,10 @@
         <x:v>44595.5599421296</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="E10" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F10" s="0">
         <x:v>1</x:v>
@@ -1624,7 +1627,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="E11" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F11" s="0">
         <x:v>1</x:v>
@@ -1647,7 +1650,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="E12" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F12" s="0">
         <x:v>1</x:v>
@@ -1667,10 +1670,10 @@
         <x:v>44617.5254050926</x:v>
       </x:c>
       <x:c r="D13" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="E13" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F13" s="0">
         <x:v>1</x:v>
@@ -1690,10 +1693,10 @@
         <x:v>44617.5256597222</x:v>
       </x:c>
       <x:c r="D14" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="E14" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F14" s="0">
         <x:v>1</x:v>
@@ -1713,10 +1716,10 @@
         <x:v>44627.5952546296</x:v>
       </x:c>
       <x:c r="D15" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="E15" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F15" s="0">
         <x:v>1</x:v>
@@ -1739,7 +1742,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="E16" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F16" s="0">
         <x:v>1</x:v>
@@ -1759,10 +1762,10 @@
         <x:v>44631.4567013889</x:v>
       </x:c>
       <x:c r="D17" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="E17" s="0" t="s">
         <x:v>29</x:v>
-      </x:c>
-      <x:c r="E17" s="0" t="s">
-        <x:v>30</x:v>
       </x:c>
       <x:c r="F17" s="0">
         <x:v>1</x:v>
@@ -1782,10 +1785,10 @@
         <x:v>44638.3929976852</x:v>
       </x:c>
       <x:c r="D18" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="E18" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F18" s="0">
         <x:v>1</x:v>
@@ -1805,10 +1808,10 @@
         <x:v>44638.3935763889</x:v>
       </x:c>
       <x:c r="D19" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="E19" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F19" s="0">
         <x:v>1</x:v>
@@ -1828,10 +1831,10 @@
         <x:v>44641.5940509259</x:v>
       </x:c>
       <x:c r="D20" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="E20" s="0" t="s">
         <x:v>29</x:v>
-      </x:c>
-      <x:c r="E20" s="0" t="s">
-        <x:v>30</x:v>
       </x:c>
       <x:c r="F20" s="0">
         <x:v>1</x:v>
@@ -1854,7 +1857,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="E21" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F21" s="0">
         <x:v>1</x:v>
@@ -1874,10 +1877,10 @@
         <x:v>44652.4965625</x:v>
       </x:c>
       <x:c r="D22" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="E22" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F22" s="0">
         <x:v>1</x:v>
@@ -1897,10 +1900,10 @@
         <x:v>44652.5067824074</x:v>
       </x:c>
       <x:c r="D23" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="E23" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F23" s="0">
         <x:v>1</x:v>
@@ -1910,6 +1913,7 @@
       </x:c>
     </x:row>
   </x:sheetData>
+  <x:autoFilter ref="A1:G23"/>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>

--- a/eform-client/cypress/fixtures/2021-11-01T00_00_00.000Z_2022-04-01T00_00_00.000Z_report.xlsx
+++ b/eform-client/cypress/fixtures/2021-11-01T00_00_00.000Z_2022-04-01T00_00_00.000Z_report.xlsx
@@ -2,23 +2,28 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="19 - 03. Kontrol flydelag" sheetId="1" r:id="R2bcb62a5554544dc"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="23 - 04. Foderindlægssedler" sheetId="2" r:id="Rba577fb42e604514"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="77 - 20. Arbejdsopgave udført" sheetId="3" r:id="R0624b7c98c0c4567"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="19 - 03. Kontrol flydelag" sheetId="1" r:id="R4ab4c17d885f4515"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="23 - 04. Foderindlægssedler" sheetId="2" r:id="Re7735bee6ccf4ab4"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="77 - 20. Arbejdsopgave udført" sheetId="3" r:id="Rd69695b44e4e432a"/>
   </x:sheets>
 </x:workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <x:styleSheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:numFmts>
+    <x:numFmt numFmtId="164" formatCode="dd/MM/yyyy"/>
+  </x:numFmts>
   <x:fonts>
     <x:font>
       <x:sz val="11"/>
+      <x:color rgb="FF000000"/>
       <x:name val="Calibri"/>
     </x:font>
     <x:font>
       <x:b/>
       <x:sz val="11"/>
+      <x:color rgb="FF000000"/>
       <x:name val="Calibri"/>
     </x:font>
   </x:fonts>
@@ -31,104 +36,64 @@
     </x:fill>
   </x:fills>
   <x:borders>
-    <x:border/>
+    <x:border>
+      <x:left/>
+      <x:right/>
+      <x:top/>
+      <x:bottom/>
+      <x:diagonal/>
+    </x:border>
   </x:borders>
+  <x:cellStyleXfs>
+    <x:xf/>
+  </x:cellStyleXfs>
   <x:cellXfs>
     <x:xf/>
     <x:xf fontId="1" applyFont="1"/>
+    <x:xf numFmtId="164" applyNumberFormat="1"/>
+    <x:xf numFmtId="22" applyNumberFormat="1"/>
   </x:cellXfs>
-  <x:numFmts>
-    <x:numFmt numFmtId="164" formatCode="dd/MM/yyyy"/>
-  </x:numFmts>
 </x:styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2558" name="Table1" displayName="Table1" ref="A1:H9">
-  <x:autoFilter ref="A1:H9"/>
-  <x:tableColumns count="8">
-    <x:tableColumn id="1" name="Column1"/>
-    <x:tableColumn id="2" name="Column2"/>
-    <x:tableColumn id="3" name="Column3"/>
-    <x:tableColumn id="4" name="Column4"/>
-    <x:tableColumn id="5" name="Column5"/>
-    <x:tableColumn id="6" name="Column6"/>
-    <x:tableColumn id="7" name="Column7"/>
-    <x:tableColumn id="8" name="Column8"/>
-  </x:tableColumns>
-  <x:tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</x:table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9966" name="Table1" displayName="Table1" ref="A1:F30">
-  <x:autoFilter ref="A1:F30"/>
-  <x:tableColumns count="6">
-    <x:tableColumn id="1" name="Column1"/>
-    <x:tableColumn id="2" name="Column2"/>
-    <x:tableColumn id="3" name="Column3"/>
-    <x:tableColumn id="4" name="Column4"/>
-    <x:tableColumn id="5" name="Column5"/>
-    <x:tableColumn id="6" name="Column6"/>
-  </x:tableColumns>
-  <x:tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</x:table>
-</file>
-
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3499" name="Table1" displayName="Table1" ref="A1:G23">
-  <x:autoFilter ref="A1:G23"/>
-  <x:tableColumns count="7">
-    <x:tableColumn id="1" name="Column1"/>
-    <x:tableColumn id="2" name="Column2"/>
-    <x:tableColumn id="3" name="Column3"/>
-    <x:tableColumn id="4" name="Column4"/>
-    <x:tableColumn id="5" name="Column5"/>
-    <x:tableColumn id="6" name="Column6"/>
-    <x:tableColumn id="7" name="Column7"/>
-  </x:tableColumns>
-  <x:tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</x:table>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData>
     <x:row>
-      <x:c s="1" t="str">
+      <x:c t="str">
         <x:v>Id</x:v>
       </x:c>
-      <x:c s="1" t="str">
+      <x:c t="str">
         <x:v>Ejendom</x:v>
       </x:c>
-      <x:c s="1" t="str">
+      <x:c t="str">
         <x:v>Indsendt dato</x:v>
       </x:c>
-      <x:c s="1" t="str">
+      <x:c t="str">
         <x:v>Udført af</x:v>
       </x:c>
-      <x:c s="1" t="str">
+      <x:c t="str">
         <x:v>Område</x:v>
       </x:c>
-      <x:c s="1" t="str">
+      <x:c t="str">
         <x:v>Flydelag OK</x:v>
       </x:c>
-      <x:c s="1" t="str">
+      <x:c t="str">
         <x:v>Vælg årsag til manglende flydelag</x:v>
       </x:c>
-      <x:c s="1" t="str">
+      <x:c t="str">
         <x:v>Kommentar</x:v>
       </x:c>
     </x:row>
     <x:row>
-      <x:c t="str">
+      <x:c t="n">
         <x:v>83</x:v>
       </x:c>
       <x:c t="str">
         <x:v>Farm 1</x:v>
       </x:c>
-      <x:c t="str">
-        <x:v>18.11.2021 09.18.36</x:v>
+      <x:c s="2" t="n">
+        <x:v>44518.38791666667</x:v>
       </x:c>
       <x:c t="str">
         <x:v>Kristian Poulsen</x:v>
@@ -147,14 +112,14 @@
       </x:c>
     </x:row>
     <x:row>
-      <x:c t="str">
+      <x:c t="n">
         <x:v>85</x:v>
       </x:c>
       <x:c t="str">
         <x:v>Farm 1</x:v>
       </x:c>
-      <x:c t="str">
-        <x:v>18.11.2021 09.19.45</x:v>
+      <x:c s="2" t="n">
+        <x:v>44518.388715277775</x:v>
       </x:c>
       <x:c t="str">
         <x:v>Kristian Poulsen</x:v>
@@ -173,14 +138,14 @@
       </x:c>
     </x:row>
     <x:row>
-      <x:c t="str">
+      <x:c t="n">
         <x:v>87</x:v>
       </x:c>
       <x:c t="str">
         <x:v>Biskopstorp</x:v>
       </x:c>
-      <x:c t="str">
-        <x:v>18.11.2021 10.37.06</x:v>
+      <x:c s="2" t="n">
+        <x:v>44518.44243055556</x:v>
       </x:c>
       <x:c t="str">
         <x:v>Kristian Poulsen</x:v>
@@ -199,14 +164,14 @@
       </x:c>
     </x:row>
     <x:row>
-      <x:c t="str">
+      <x:c t="n">
         <x:v>90</x:v>
       </x:c>
       <x:c t="str">
         <x:v>Biskopstorp</x:v>
       </x:c>
-      <x:c t="str">
-        <x:v>18.11.2021 10.37.21</x:v>
+      <x:c s="2" t="n">
+        <x:v>44518.44260416667</x:v>
       </x:c>
       <x:c t="str">
         <x:v>Kristian Poulsen</x:v>
@@ -225,14 +190,14 @@
       </x:c>
     </x:row>
     <x:row>
-      <x:c t="str">
+      <x:c t="n">
         <x:v>93</x:v>
       </x:c>
       <x:c t="str">
         <x:v>Biskopstorp</x:v>
       </x:c>
-      <x:c t="str">
-        <x:v>18.11.2021 10.38.27</x:v>
+      <x:c s="2" t="n">
+        <x:v>44518.44336805555</x:v>
       </x:c>
       <x:c t="str">
         <x:v>Kristian Poulsen</x:v>
@@ -251,14 +216,14 @@
       </x:c>
     </x:row>
     <x:row>
-      <x:c t="str">
+      <x:c t="n">
         <x:v>1069</x:v>
       </x:c>
       <x:c t="str">
         <x:v>Farm 1</x:v>
       </x:c>
-      <x:c t="str">
-        <x:v>26.01.2022 08.58.56</x:v>
+      <x:c s="2" t="n">
+        <x:v>44587.37425925926</x:v>
       </x:c>
       <x:c t="str">
         <x:v>Kristian Poulsen</x:v>
@@ -277,14 +242,14 @@
       </x:c>
     </x:row>
     <x:row>
-      <x:c t="str">
+      <x:c t="n">
         <x:v>1774</x:v>
       </x:c>
       <x:c t="str">
         <x:v>Farm 1</x:v>
       </x:c>
-      <x:c t="str">
-        <x:v>18.02.2022 12.15.08</x:v>
+      <x:c s="2" t="n">
+        <x:v>44610.51050925926</x:v>
       </x:c>
       <x:c t="str">
         <x:v>Kristian Poulsen</x:v>
@@ -303,14 +268,14 @@
       </x:c>
     </x:row>
     <x:row>
-      <x:c t="str">
+      <x:c t="n">
         <x:v>1775</x:v>
       </x:c>
       <x:c t="str">
         <x:v>Farm 1</x:v>
       </x:c>
-      <x:c t="str">
-        <x:v>18.02.2022 12.15.49</x:v>
+      <x:c s="2" t="n">
+        <x:v>44610.510983796295</x:v>
       </x:c>
       <x:c t="str">
         <x:v>Kristian Poulsen</x:v>
@@ -329,7 +294,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:autoFilter ref="A1:H9"/>
 </x:worksheet>
 </file>
 
@@ -337,34 +301,34 @@
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData>
     <x:row>
-      <x:c s="1" t="str">
+      <x:c t="str">
         <x:v>Id</x:v>
       </x:c>
-      <x:c s="1" t="str">
+      <x:c t="str">
         <x:v>Ejendom</x:v>
       </x:c>
-      <x:c s="1" t="str">
+      <x:c t="str">
         <x:v>Indsendt dato</x:v>
       </x:c>
-      <x:c s="1" t="str">
+      <x:c t="str">
         <x:v>Udført af</x:v>
       </x:c>
-      <x:c s="1" t="str">
+      <x:c t="str">
         <x:v>Område</x:v>
       </x:c>
-      <x:c s="1" t="str">
+      <x:c t="str">
         <x:v>Kommentar</x:v>
       </x:c>
     </x:row>
     <x:row>
-      <x:c t="str">
+      <x:c t="n">
         <x:v>54</x:v>
       </x:c>
       <x:c t="str">
         <x:v>Farm 1</x:v>
       </x:c>
-      <x:c t="str">
-        <x:v>18.11.2021 09.15.16</x:v>
+      <x:c s="2" t="n">
+        <x:v>44518.38560185185</x:v>
       </x:c>
       <x:c t="str">
         <x:v>Kristian Poulsen</x:v>
@@ -377,14 +341,14 @@
       </x:c>
     </x:row>
     <x:row>
-      <x:c t="str">
+      <x:c t="n">
         <x:v>101</x:v>
       </x:c>
       <x:c t="str">
         <x:v>Farm 1</x:v>
       </x:c>
-      <x:c t="str">
-        <x:v>25.11.2021 08.34.28</x:v>
+      <x:c s="2" t="n">
+        <x:v>44525.35726851852</x:v>
       </x:c>
       <x:c t="str">
         <x:v>Kristian Poulsen</x:v>
@@ -397,14 +361,14 @@
       </x:c>
     </x:row>
     <x:row>
-      <x:c t="str">
+      <x:c t="n">
         <x:v>272</x:v>
       </x:c>
       <x:c t="str">
         <x:v>Farm 1</x:v>
       </x:c>
-      <x:c t="str">
-        <x:v>29.11.2021 10.07.06</x:v>
+      <x:c s="2" t="n">
+        <x:v>44529.42159722222</x:v>
       </x:c>
       <x:c t="str">
         <x:v>Kristian Poulsen</x:v>
@@ -417,14 +381,14 @@
       </x:c>
     </x:row>
     <x:row>
-      <x:c t="str">
+      <x:c t="n">
         <x:v>558</x:v>
       </x:c>
       <x:c t="str">
         <x:v>Farm 1</x:v>
       </x:c>
-      <x:c t="str">
-        <x:v>10.12.2021 08.12.09</x:v>
+      <x:c s="2" t="n">
+        <x:v>44540.341770833336</x:v>
       </x:c>
       <x:c t="str">
         <x:v>Kristian Poulsen</x:v>
@@ -437,14 +401,14 @@
       </x:c>
     </x:row>
     <x:row>
-      <x:c t="str">
+      <x:c t="n">
         <x:v>559</x:v>
       </x:c>
       <x:c t="str">
         <x:v>Farm 1</x:v>
       </x:c>
-      <x:c t="str">
-        <x:v>11.12.2021 14.37.48</x:v>
+      <x:c s="2" t="n">
+        <x:v>44541.60958333333</x:v>
       </x:c>
       <x:c t="str">
         <x:v>Kristian Poulsen</x:v>
@@ -457,14 +421,14 @@
       </x:c>
     </x:row>
     <x:row>
-      <x:c t="str">
+      <x:c t="n">
         <x:v>612</x:v>
       </x:c>
       <x:c t="str">
         <x:v>Farm 1</x:v>
       </x:c>
-      <x:c t="str">
-        <x:v>11.12.2021 14.38.42</x:v>
+      <x:c s="2" t="n">
+        <x:v>44541.61020833333</x:v>
       </x:c>
       <x:c t="str">
         <x:v>Kristian Poulsen</x:v>
@@ -477,14 +441,14 @@
       </x:c>
     </x:row>
     <x:row>
-      <x:c t="str">
+      <x:c t="n">
         <x:v>657</x:v>
       </x:c>
       <x:c t="str">
         <x:v>Farm 1</x:v>
       </x:c>
-      <x:c t="str">
-        <x:v>14.12.2021 17.32.10</x:v>
+      <x:c s="2" t="n">
+        <x:v>44544.730671296296</x:v>
       </x:c>
       <x:c t="str">
         <x:v>Kristian Poulsen</x:v>
@@ -497,14 +461,14 @@
       </x:c>
     </x:row>
     <x:row>
-      <x:c t="str">
+      <x:c t="n">
         <x:v>995</x:v>
       </x:c>
       <x:c t="str">
         <x:v>Farm 1</x:v>
       </x:c>
-      <x:c t="str">
-        <x:v>30.12.2021 10.19.28</x:v>
+      <x:c s="2" t="n">
+        <x:v>44560.430185185185</x:v>
       </x:c>
       <x:c t="str">
         <x:v>Kristian Poulsen</x:v>
@@ -517,14 +481,14 @@
       </x:c>
     </x:row>
     <x:row>
-      <x:c t="str">
+      <x:c t="n">
         <x:v>1128</x:v>
       </x:c>
       <x:c t="str">
         <x:v>Farm 1</x:v>
       </x:c>
-      <x:c t="str">
-        <x:v>04.01.2022 15.56.51</x:v>
+      <x:c s="2" t="n">
+        <x:v>44565.66447916667</x:v>
       </x:c>
       <x:c t="str">
         <x:v>Kristian Poulsen</x:v>
@@ -537,14 +501,14 @@
       </x:c>
     </x:row>
     <x:row>
-      <x:c t="str">
+      <x:c t="n">
         <x:v>1153</x:v>
       </x:c>
       <x:c t="str">
         <x:v>Farm 1</x:v>
       </x:c>
-      <x:c t="str">
-        <x:v>05.01.2022 14.31.13</x:v>
+      <x:c s="2" t="n">
+        <x:v>44566.60501157407</x:v>
       </x:c>
       <x:c t="str">
         <x:v>Kristian Poulsen</x:v>
@@ -557,14 +521,14 @@
       </x:c>
     </x:row>
     <x:row>
-      <x:c t="str">
+      <x:c t="n">
         <x:v>1154</x:v>
       </x:c>
       <x:c t="str">
         <x:v>Farm 1</x:v>
       </x:c>
-      <x:c t="str">
-        <x:v>05.01.2022 14.32.19</x:v>
+      <x:c s="2" t="n">
+        <x:v>44566.605775462966</x:v>
       </x:c>
       <x:c t="str">
         <x:v>Kristian Poulsen</x:v>
@@ -577,14 +541,14 @@
       </x:c>
     </x:row>
     <x:row>
-      <x:c t="str">
+      <x:c t="n">
         <x:v>1203</x:v>
       </x:c>
       <x:c t="str">
         <x:v>Farm 1</x:v>
       </x:c>
-      <x:c t="str">
-        <x:v>07.01.2022 10.54.51</x:v>
+      <x:c s="2" t="n">
+        <x:v>44568.45475694445</x:v>
       </x:c>
       <x:c t="str">
         <x:v>Kristian Poulsen</x:v>
@@ -597,14 +561,14 @@
       </x:c>
     </x:row>
     <x:row>
-      <x:c t="str">
+      <x:c t="n">
         <x:v>1327</x:v>
       </x:c>
       <x:c t="str">
         <x:v>Farm 1</x:v>
       </x:c>
-      <x:c t="str">
-        <x:v>14.01.2022 13.28.08</x:v>
+      <x:c s="2" t="n">
+        <x:v>44575.561203703706</x:v>
       </x:c>
       <x:c t="str">
         <x:v>Kristian Poulsen</x:v>
@@ -617,14 +581,14 @@
       </x:c>
     </x:row>
     <x:row>
-      <x:c t="str">
+      <x:c t="n">
         <x:v>1408</x:v>
       </x:c>
       <x:c t="str">
         <x:v>Farm 1</x:v>
       </x:c>
-      <x:c t="str">
-        <x:v>18.01.2022 12.28.45</x:v>
+      <x:c s="2" t="n">
+        <x:v>44579.51996527778</x:v>
       </x:c>
       <x:c t="str">
         <x:v>Kristian Poulsen</x:v>
@@ -637,14 +601,14 @@
       </x:c>
     </x:row>
     <x:row>
-      <x:c t="str">
+      <x:c t="n">
         <x:v>1979</x:v>
       </x:c>
       <x:c t="str">
         <x:v>Farm 1</x:v>
       </x:c>
-      <x:c t="str">
-        <x:v>10.02.2022 14.54.51</x:v>
+      <x:c s="2" t="n">
+        <x:v>44602.62142361111</x:v>
       </x:c>
       <x:c t="str">
         <x:v>Kristian Poulsen</x:v>
@@ -658,14 +622,14 @@
       </x:c>
     </x:row>
     <x:row>
-      <x:c t="str">
+      <x:c t="n">
         <x:v>2007</x:v>
       </x:c>
       <x:c t="str">
         <x:v>Farm 1</x:v>
       </x:c>
-      <x:c t="str">
-        <x:v>18.02.2022 12.12.59</x:v>
+      <x:c s="2" t="n">
+        <x:v>44610.5090162037</x:v>
       </x:c>
       <x:c t="str">
         <x:v>Kristian Poulsen</x:v>
@@ -678,14 +642,14 @@
       </x:c>
     </x:row>
     <x:row>
-      <x:c t="str">
+      <x:c t="n">
         <x:v>2270</x:v>
       </x:c>
       <x:c t="str">
         <x:v>Farm 1</x:v>
       </x:c>
-      <x:c t="str">
-        <x:v>22.02.2022 16.52.26</x:v>
+      <x:c s="2" t="n">
+        <x:v>44614.7030787037</x:v>
       </x:c>
       <x:c t="str">
         <x:v>Kristian Poulsen</x:v>
@@ -698,14 +662,14 @@
       </x:c>
     </x:row>
     <x:row>
-      <x:c t="str">
+      <x:c t="n">
         <x:v>2295</x:v>
       </x:c>
       <x:c t="str">
         <x:v>Farm 1</x:v>
       </x:c>
-      <x:c t="str">
-        <x:v>24.02.2022 06.54.37</x:v>
+      <x:c s="2" t="n">
+        <x:v>44616.28792824074</x:v>
       </x:c>
       <x:c t="str">
         <x:v>Kristian Poulsen</x:v>
@@ -718,14 +682,14 @@
       </x:c>
     </x:row>
     <x:row>
-      <x:c t="str">
+      <x:c t="n">
         <x:v>2319</x:v>
       </x:c>
       <x:c t="str">
         <x:v>Farm 1</x:v>
       </x:c>
-      <x:c t="str">
-        <x:v>24.02.2022 21.52.34</x:v>
+      <x:c s="2" t="n">
+        <x:v>44616.91150462963</x:v>
       </x:c>
       <x:c t="str">
         <x:v>Kristian Poulsen</x:v>
@@ -738,14 +702,14 @@
       </x:c>
     </x:row>
     <x:row>
-      <x:c t="str">
+      <x:c t="n">
         <x:v>2624</x:v>
       </x:c>
       <x:c t="str">
         <x:v>Farm 1</x:v>
       </x:c>
-      <x:c t="str">
-        <x:v>08.03.2022 14.45.04</x:v>
+      <x:c s="2" t="n">
+        <x:v>44628.61462962963</x:v>
       </x:c>
       <x:c t="str">
         <x:v>Kristian Poulsen</x:v>
@@ -758,14 +722,14 @@
       </x:c>
     </x:row>
     <x:row>
-      <x:c t="str">
+      <x:c t="n">
         <x:v>2672</x:v>
       </x:c>
       <x:c t="str">
         <x:v>Farm 1</x:v>
       </x:c>
-      <x:c t="str">
-        <x:v>11.03.2022 07.30.21</x:v>
+      <x:c s="2" t="n">
+        <x:v>44631.312743055554</x:v>
       </x:c>
       <x:c t="str">
         <x:v>Kristian Poulsen</x:v>
@@ -778,14 +742,14 @@
       </x:c>
     </x:row>
     <x:row>
-      <x:c t="str">
+      <x:c t="n">
         <x:v>2674</x:v>
       </x:c>
       <x:c t="str">
         <x:v>Farm 1</x:v>
       </x:c>
-      <x:c t="str">
-        <x:v>11.03.2022 07.31.08</x:v>
+      <x:c s="2" t="n">
+        <x:v>44631.31328703704</x:v>
       </x:c>
       <x:c t="str">
         <x:v>Kristian Poulsen</x:v>
@@ -798,14 +762,14 @@
       </x:c>
     </x:row>
     <x:row>
-      <x:c t="str">
+      <x:c t="n">
         <x:v>2847</x:v>
       </x:c>
       <x:c t="str">
         <x:v>Biskopstorp</x:v>
       </x:c>
-      <x:c t="str">
-        <x:v>17.03.2022 10.52.27</x:v>
+      <x:c s="2" t="n">
+        <x:v>44637.45309027778</x:v>
       </x:c>
       <x:c t="str">
         <x:v>Biskopstorp (Sascha)</x:v>
@@ -818,14 +782,14 @@
       </x:c>
     </x:row>
     <x:row>
-      <x:c t="str">
+      <x:c t="n">
         <x:v>2853</x:v>
       </x:c>
       <x:c t="str">
         <x:v>Biskopstorp</x:v>
       </x:c>
-      <x:c t="str">
-        <x:v>17.03.2022 10.55.30</x:v>
+      <x:c s="2" t="n">
+        <x:v>44637.45520833333</x:v>
       </x:c>
       <x:c t="str">
         <x:v>Biskopstorp (Sascha)</x:v>
@@ -838,14 +802,14 @@
       </x:c>
     </x:row>
     <x:row>
-      <x:c t="str">
+      <x:c t="n">
         <x:v>2870</x:v>
       </x:c>
       <x:c t="str">
         <x:v>Farm 1</x:v>
       </x:c>
-      <x:c t="str">
-        <x:v>25.03.2022 10.16.41</x:v>
+      <x:c s="2" t="n">
+        <x:v>44645.428252314814</x:v>
       </x:c>
       <x:c t="str">
         <x:v>Kristian Poulsen</x:v>
@@ -858,14 +822,14 @@
       </x:c>
     </x:row>
     <x:row>
-      <x:c t="str">
+      <x:c t="n">
         <x:v>3046</x:v>
       </x:c>
       <x:c t="str">
         <x:v>Biskopstorp</x:v>
       </x:c>
-      <x:c t="str">
-        <x:v>28.03.2022 08.40.52</x:v>
+      <x:c s="2" t="n">
+        <x:v>44648.361712962964</x:v>
       </x:c>
       <x:c t="str">
         <x:v>Biskopstorp (Valerii)</x:v>
@@ -878,14 +842,14 @@
       </x:c>
     </x:row>
     <x:row>
-      <x:c t="str">
+      <x:c t="n">
         <x:v>3141</x:v>
       </x:c>
       <x:c t="str">
         <x:v>Farm 1</x:v>
       </x:c>
-      <x:c t="str">
-        <x:v>29.03.2022 17.47.22</x:v>
+      <x:c s="2" t="n">
+        <x:v>44649.74122685185</x:v>
       </x:c>
       <x:c t="str">
         <x:v>Kristian Poulsen</x:v>
@@ -898,14 +862,14 @@
       </x:c>
     </x:row>
     <x:row>
-      <x:c t="str">
+      <x:c t="n">
         <x:v>3219</x:v>
       </x:c>
       <x:c t="str">
         <x:v>Farm 1</x:v>
       </x:c>
-      <x:c t="str">
-        <x:v>01.04.2022 09.28.27</x:v>
+      <x:c s="2" t="n">
+        <x:v>44652.39475694444</x:v>
       </x:c>
       <x:c t="str">
         <x:v>Kristian Poulsen</x:v>
@@ -918,14 +882,14 @@
       </x:c>
     </x:row>
     <x:row>
-      <x:c t="str">
+      <x:c t="n">
         <x:v>3220</x:v>
       </x:c>
       <x:c t="str">
         <x:v>Farm 1</x:v>
       </x:c>
-      <x:c t="str">
-        <x:v>01.04.2022 09.29.32</x:v>
+      <x:c s="2" t="n">
+        <x:v>44652.39550925926</x:v>
       </x:c>
       <x:c t="str">
         <x:v>Kristian Poulsen</x:v>
@@ -938,7 +902,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:autoFilter ref="A1:F30"/>
 </x:worksheet>
 </file>
 
@@ -946,37 +909,37 @@
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData>
     <x:row>
-      <x:c s="1" t="str">
+      <x:c t="str">
         <x:v>Id</x:v>
       </x:c>
-      <x:c s="1" t="str">
+      <x:c t="str">
         <x:v>Ejendom</x:v>
       </x:c>
-      <x:c s="1" t="str">
+      <x:c t="str">
         <x:v>Indsendt dato</x:v>
       </x:c>
-      <x:c s="1" t="str">
+      <x:c t="str">
         <x:v>Udført af</x:v>
       </x:c>
-      <x:c s="1" t="str">
+      <x:c t="str">
         <x:v>Område</x:v>
       </x:c>
-      <x:c s="1" t="str">
+      <x:c t="str">
         <x:v>Opgave udført</x:v>
       </x:c>
-      <x:c s="1" t="str">
+      <x:c t="str">
         <x:v>Kommentar</x:v>
       </x:c>
     </x:row>
     <x:row>
-      <x:c t="str">
+      <x:c t="n">
         <x:v>370</x:v>
       </x:c>
       <x:c t="str">
         <x:v>Farm 1</x:v>
       </x:c>
-      <x:c t="str">
-        <x:v>10.12.2021 08.12.46</x:v>
+      <x:c s="2" t="n">
+        <x:v>44540.342199074075</x:v>
       </x:c>
       <x:c t="str">
         <x:v>Kristian Poulsen</x:v>
@@ -992,14 +955,14 @@
       </x:c>
     </x:row>
     <x:row>
-      <x:c t="str">
+      <x:c t="n">
         <x:v>373</x:v>
       </x:c>
       <x:c t="str">
         <x:v>Farm 1</x:v>
       </x:c>
-      <x:c t="str">
-        <x:v>18.12.2021 09.46.01</x:v>
+      <x:c s="2" t="n">
+        <x:v>44548.406956018516</x:v>
       </x:c>
       <x:c t="str">
         <x:v>Kristian Poulsen</x:v>
@@ -1015,14 +978,14 @@
       </x:c>
     </x:row>
     <x:row>
-      <x:c t="str">
+      <x:c t="n">
         <x:v>585</x:v>
       </x:c>
       <x:c t="str">
         <x:v>Farm 1</x:v>
       </x:c>
-      <x:c t="str">
-        <x:v>18.12.2021 09.46.10</x:v>
+      <x:c s="2" t="n">
+        <x:v>44548.407060185185</x:v>
       </x:c>
       <x:c t="str">
         <x:v>Kristian Poulsen</x:v>
@@ -1038,14 +1001,14 @@
       </x:c>
     </x:row>
     <x:row>
-      <x:c t="str">
+      <x:c t="n">
         <x:v>730</x:v>
       </x:c>
       <x:c t="str">
         <x:v>Farm 1</x:v>
       </x:c>
-      <x:c t="str">
-        <x:v>18.12.2021 09.49.53</x:v>
+      <x:c s="2" t="n">
+        <x:v>44548.4096412037</x:v>
       </x:c>
       <x:c t="str">
         <x:v>Kristian Poulsen</x:v>
@@ -1061,14 +1024,14 @@
       </x:c>
     </x:row>
     <x:row>
-      <x:c t="str">
+      <x:c t="n">
         <x:v>1044</x:v>
       </x:c>
       <x:c t="str">
         <x:v>Farm 1</x:v>
       </x:c>
-      <x:c t="str">
-        <x:v>31.12.2021 15.37.01</x:v>
+      <x:c s="2" t="n">
+        <x:v>44561.65070601852</x:v>
       </x:c>
       <x:c t="str">
         <x:v>Kristian Poulsen</x:v>
@@ -1084,14 +1047,14 @@
       </x:c>
     </x:row>
     <x:row>
-      <x:c t="str">
+      <x:c t="n">
         <x:v>1220</x:v>
       </x:c>
       <x:c t="str">
         <x:v>Farm 1</x:v>
       </x:c>
-      <x:c t="str">
-        <x:v>07.01.2022 10.53.52</x:v>
+      <x:c s="2" t="n">
+        <x:v>44568.45407407408</x:v>
       </x:c>
       <x:c t="str">
         <x:v>Kristian Poulsen</x:v>
@@ -1107,14 +1070,14 @@
       </x:c>
     </x:row>
     <x:row>
-      <x:c t="str">
+      <x:c t="n">
         <x:v>1331</x:v>
       </x:c>
       <x:c t="str">
         <x:v>Farm 1</x:v>
       </x:c>
-      <x:c t="str">
-        <x:v>14.01.2022 13.27.18</x:v>
+      <x:c s="2" t="n">
+        <x:v>44575.560625</x:v>
       </x:c>
       <x:c t="str">
         <x:v>Kristian Poulsen</x:v>
@@ -1130,14 +1093,14 @@
       </x:c>
     </x:row>
     <x:row>
-      <x:c t="str">
+      <x:c t="n">
         <x:v>1480</x:v>
       </x:c>
       <x:c t="str">
         <x:v>Farm 1</x:v>
       </x:c>
-      <x:c t="str">
-        <x:v>26.01.2022 10.26.23</x:v>
+      <x:c s="2" t="n">
+        <x:v>44587.43498842593</x:v>
       </x:c>
       <x:c t="str">
         <x:v>Leif _</x:v>
@@ -1153,14 +1116,14 @@
       </x:c>
     </x:row>
     <x:row>
-      <x:c t="str">
+      <x:c t="n">
         <x:v>1833</x:v>
       </x:c>
       <x:c t="str">
         <x:v>Farm 1</x:v>
       </x:c>
-      <x:c t="str">
-        <x:v>03.02.2022 13.26.19</x:v>
+      <x:c s="2" t="n">
+        <x:v>44595.55994212963</x:v>
       </x:c>
       <x:c t="str">
         <x:v>Leif _</x:v>
@@ -1176,14 +1139,14 @@
       </x:c>
     </x:row>
     <x:row>
-      <x:c t="str">
+      <x:c t="n">
         <x:v>2028</x:v>
       </x:c>
       <x:c t="str">
         <x:v>Farm 1</x:v>
       </x:c>
-      <x:c t="str">
-        <x:v>11.02.2022 11.20.02</x:v>
+      <x:c s="2" t="n">
+        <x:v>44603.47224537037</x:v>
       </x:c>
       <x:c t="str">
         <x:v>Kristian Poulsen</x:v>
@@ -1199,14 +1162,14 @@
       </x:c>
     </x:row>
     <x:row>
-      <x:c t="str">
+      <x:c t="n">
         <x:v>2197</x:v>
       </x:c>
       <x:c t="str">
         <x:v>Farm 1</x:v>
       </x:c>
-      <x:c t="str">
-        <x:v>18.02.2022 12.14.11</x:v>
+      <x:c s="2" t="n">
+        <x:v>44610.50984953704</x:v>
       </x:c>
       <x:c t="str">
         <x:v>Kristian Poulsen</x:v>
@@ -1222,14 +1185,14 @@
       </x:c>
     </x:row>
     <x:row>
-      <x:c t="str">
+      <x:c t="n">
         <x:v>1773</x:v>
       </x:c>
       <x:c t="str">
         <x:v>Farm 1</x:v>
       </x:c>
-      <x:c t="str">
-        <x:v>25.02.2022 12.36.35</x:v>
+      <x:c s="2" t="n">
+        <x:v>44617.525405092594</x:v>
       </x:c>
       <x:c t="str">
         <x:v>Leif _</x:v>
@@ -1245,14 +1208,14 @@
       </x:c>
     </x:row>
     <x:row>
-      <x:c t="str">
+      <x:c t="n">
         <x:v>2173</x:v>
       </x:c>
       <x:c t="str">
         <x:v>Farm 1</x:v>
       </x:c>
-      <x:c t="str">
-        <x:v>25.02.2022 12.36.57</x:v>
+      <x:c s="2" t="n">
+        <x:v>44617.525659722225</x:v>
       </x:c>
       <x:c t="str">
         <x:v>Leif _</x:v>
@@ -1268,14 +1231,14 @@
       </x:c>
     </x:row>
     <x:row>
-      <x:c t="str">
+      <x:c t="n">
         <x:v>2524</x:v>
       </x:c>
       <x:c t="str">
         <x:v>Farm 1</x:v>
       </x:c>
-      <x:c t="str">
-        <x:v>07.03.2022 14.17.10</x:v>
+      <x:c s="2" t="n">
+        <x:v>44627.59525462963</x:v>
       </x:c>
       <x:c t="str">
         <x:v>Leif _</x:v>
@@ -1291,14 +1254,14 @@
       </x:c>
     </x:row>
     <x:row>
-      <x:c t="str">
+      <x:c t="n">
         <x:v>2721</x:v>
       </x:c>
       <x:c t="str">
         <x:v>Farm 1</x:v>
       </x:c>
-      <x:c t="str">
-        <x:v>11.03.2022 10.14.47</x:v>
+      <x:c s="2" t="n">
+        <x:v>44631.426932870374</x:v>
       </x:c>
       <x:c t="str">
         <x:v>Kristian Poulsen</x:v>
@@ -1314,14 +1277,14 @@
       </x:c>
     </x:row>
     <x:row>
-      <x:c t="str">
+      <x:c t="n">
         <x:v>2526</x:v>
       </x:c>
       <x:c t="str">
         <x:v>Farm 1</x:v>
       </x:c>
-      <x:c t="str">
-        <x:v>11.03.2022 10.57.39</x:v>
+      <x:c s="2" t="n">
+        <x:v>44631.45670138889</x:v>
       </x:c>
       <x:c t="str">
         <x:v>Nicolas _</x:v>
@@ -1337,14 +1300,14 @@
       </x:c>
     </x:row>
     <x:row>
-      <x:c t="str">
+      <x:c t="n">
         <x:v>2696</x:v>
       </x:c>
       <x:c t="str">
         <x:v>Farm 1</x:v>
       </x:c>
-      <x:c t="str">
-        <x:v>18.03.2022 09.25.55</x:v>
+      <x:c s="2" t="n">
+        <x:v>44638.39299768519</x:v>
       </x:c>
       <x:c t="str">
         <x:v>Leif _</x:v>
@@ -1360,14 +1323,14 @@
       </x:c>
     </x:row>
     <x:row>
-      <x:c t="str">
+      <x:c t="n">
         <x:v>2866</x:v>
       </x:c>
       <x:c t="str">
         <x:v>Farm 1</x:v>
       </x:c>
-      <x:c t="str">
-        <x:v>18.03.2022 09.26.45</x:v>
+      <x:c s="2" t="n">
+        <x:v>44638.39357638889</x:v>
       </x:c>
       <x:c t="str">
         <x:v>Leif _</x:v>
@@ -1383,14 +1346,14 @@
       </x:c>
     </x:row>
     <x:row>
-      <x:c t="str">
+      <x:c t="n">
         <x:v>2893</x:v>
       </x:c>
       <x:c t="str">
         <x:v>Farm 1</x:v>
       </x:c>
-      <x:c t="str">
-        <x:v>21.03.2022 14.15.26</x:v>
+      <x:c s="2" t="n">
+        <x:v>44641.59405092592</x:v>
       </x:c>
       <x:c t="str">
         <x:v>Nicolas _</x:v>
@@ -1406,14 +1369,14 @@
       </x:c>
     </x:row>
     <x:row>
-      <x:c t="str">
+      <x:c t="n">
         <x:v>3216</x:v>
       </x:c>
       <x:c t="str">
         <x:v>Farm 1</x:v>
       </x:c>
-      <x:c t="str">
-        <x:v>31.03.2022 09.22.18</x:v>
+      <x:c s="2" t="n">
+        <x:v>44651.39048611111</x:v>
       </x:c>
       <x:c t="str">
         <x:v>Kristian Poulsen</x:v>
@@ -1429,14 +1392,14 @@
       </x:c>
     </x:row>
     <x:row>
-      <x:c t="str">
+      <x:c t="n">
         <x:v>3139</x:v>
       </x:c>
       <x:c t="str">
         <x:v>Farm 1</x:v>
       </x:c>
-      <x:c t="str">
-        <x:v>01.04.2022 11.55.03</x:v>
+      <x:c s="2" t="n">
+        <x:v>44652.4965625</x:v>
       </x:c>
       <x:c t="str">
         <x:v>Nicolas _</x:v>
@@ -1452,14 +1415,14 @@
       </x:c>
     </x:row>
     <x:row>
-      <x:c t="str">
+      <x:c t="n">
         <x:v>3137</x:v>
       </x:c>
       <x:c t="str">
         <x:v>Farm 1</x:v>
       </x:c>
-      <x:c t="str">
-        <x:v>01.04.2022 12.09.46</x:v>
+      <x:c s="2" t="n">
+        <x:v>44652.50678240741</x:v>
       </x:c>
       <x:c t="str">
         <x:v>Nicolas _</x:v>
@@ -1475,6 +1438,5 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:autoFilter ref="A1:G23"/>
 </x:worksheet>
 </file>